--- a/test/Progress report.xlsx
+++ b/test/Progress report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\maze-project-2021\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\maze-project-2021\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EFF3C8-2CA7-459A-96D5-16EEBDFEFD22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F7463D-12F1-4B00-9343-DCDBFCDF0BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6735" yWindow="3390" windowWidth="20235" windowHeight="11505" xr2:uid="{8A6A7E8B-D360-4DEB-97D5-E55CDCDA4E82}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27210" windowHeight="15990" xr2:uid="{8A6A7E8B-D360-4DEB-97D5-E55CDCDA4E82}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
   <si>
     <t>PROGRESS REPORT</t>
   </si>
@@ -121,14 +121,7 @@
 background</t>
   </si>
   <si>
-    <t>9.11.2022</t>
-  </si>
-  <si>
     <t>in progress</t>
-  </si>
-  <si>
-    <t>Other game
-mechanics</t>
   </si>
   <si>
     <t>ABPozharliev19
@@ -136,10 +129,25 @@
 KSChervenkov19</t>
   </si>
   <si>
-    <t>9.11.2023</t>
-  </si>
-  <si>
     <t>open</t>
+  </si>
+  <si>
+    <t>5.11.2021</t>
+  </si>
+  <si>
+    <t>Add scrolls and runes</t>
+  </si>
+  <si>
+    <t>Character design</t>
+  </si>
+  <si>
+    <t>3.11.2021</t>
+  </si>
+  <si>
+    <t>Collisions</t>
+  </si>
+  <si>
+    <t>Git Hub work</t>
   </si>
 </sst>
 </file>
@@ -204,7 +212,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -309,17 +317,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -362,37 +406,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Нормален" xfId="0" builtinId="0"/>
@@ -715,7 +784,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,241 +799,281 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="30" t="s">
+      <c r="G2" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="22" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:9" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="11" t="s">
+      <c r="F5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>20</v>
       </c>
       <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="9" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B8" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>32</v>
+      <c r="E8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>29</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4"/>
     </row>
-    <row r="9" spans="1:9" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
         <v>7</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="21" t="s">
+      <c r="B9" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>8</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="24" t="s">
+      <c r="E10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>9</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="D11" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="4"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+    <row r="12" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="34">
+        <v>10</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="27"/>
+      <c r="E12" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>

--- a/test/Progress report.xlsx
+++ b/test/Progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\maze-project-2021\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F7463D-12F1-4B00-9343-DCDBFCDF0BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FECD9E-4B50-456E-AA5C-1DE83C30831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27210" windowHeight="15990" xr2:uid="{8A6A7E8B-D360-4DEB-97D5-E55CDCDA4E82}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
   <si>
     <t>PROGRESS REPORT</t>
   </si>
@@ -148,6 +148,27 @@
   </si>
   <si>
     <t>Git Hub work</t>
+  </si>
+  <si>
+    <t>QA documentation</t>
+  </si>
+  <si>
+    <t>IGVasilev19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Microsoft Excel     Microsoft Word      </t>
+  </si>
+  <si>
+    <t>Finish Game and Project documentation</t>
+  </si>
+  <si>
+    <t>ABPozharliev19
+BNSavov19
+KSChervenkov19                  IGVasilev19</t>
+  </si>
+  <si>
+    <t>Microsoft Excel     Microsoft Word     Visual studio
+code                  Visual Studio 2019 Microsoft PowerPoint</t>
   </si>
 </sst>
 </file>
@@ -212,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -354,11 +375,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -416,51 +490,79 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,12 +886,12 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="15.140625" customWidth="1"/>
@@ -799,16 +901,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="22" t="s">
@@ -960,7 +1062,7 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="24" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -979,81 +1081,81 @@
       <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="23">
         <v>7</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="29" t="s">
+      <c r="F9" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="28" t="s">
+      <c r="G9" s="25" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="30">
         <v>8</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="28" t="s">
+      <c r="E10" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="F10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="25" t="s">
         <v>33</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="29">
         <v>9</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="29" t="s">
+      <c r="F11" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="28" t="s">
+      <c r="G11" s="25" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34">
+    <row r="12" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
         <v>10</v>
       </c>
       <c r="B12" s="36" t="s">
@@ -1062,40 +1164,64 @@
       <c r="C12" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="37" t="s">
+      <c r="D12" s="38"/>
+      <c r="E12" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="47">
+        <v>11</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="14" spans="1:9" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="41">
+        <v>12</v>
+      </c>
+      <c r="B14" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="37"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="34"/>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>

--- a/test/Progress report.xlsx
+++ b/test/Progress report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\maze-project-2021\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4FECD9E-4B50-456E-AA5C-1DE83C30831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E697F424-FFCB-4E47-A108-1DBD24E29840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="27210" windowHeight="15990" xr2:uid="{8A6A7E8B-D360-4DEB-97D5-E55CDCDA4E82}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="41">
   <si>
     <t>PROGRESS REPORT</t>
   </si>
@@ -119,9 +119,6 @@
   <si>
     <t>Main menu
 background</t>
-  </si>
-  <si>
-    <t>in progress</t>
   </si>
   <si>
     <t>ABPozharliev19
@@ -129,9 +126,6 @@
 KSChervenkov19</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>5.11.2021</t>
   </si>
   <si>
@@ -169,6 +163,9 @@
   <si>
     <t>Microsoft Excel     Microsoft Word     Visual studio
 code                  Visual Studio 2019 Microsoft PowerPoint</t>
+  </si>
+  <si>
+    <t>8.11.2021</t>
   </si>
 </sst>
 </file>
@@ -207,7 +204,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,18 +217,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -432,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -480,9 +465,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -517,12 +499,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -530,24 +506,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -563,6 +528,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -886,7 +869,7 @@
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,40 +884,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="47.25" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:9" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="G2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="21" t="s">
         <v>8</v>
       </c>
     </row>
@@ -942,7 +925,7 @@
       <c r="A3" s="6">
         <v>1</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -1014,7 +997,7 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1062,7 +1045,7 @@
       <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="23" t="s">
         <v>26</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -1074,152 +1057,160 @@
       <c r="E8" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="22">
+        <v>7</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
-        <v>7</v>
-      </c>
-      <c r="B9" s="28" t="s">
+      <c r="C9" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>8</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="24" t="s">
         <v>31</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
-        <v>8</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>33</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="28">
         <v>9</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="28" t="s">
+      <c r="B11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="24" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>30</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35">
+      <c r="A12" s="32">
         <v>10</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39">
+        <v>11</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47">
-        <v>11</v>
-      </c>
-      <c r="B13" s="46" t="s">
+      <c r="D13" s="15" t="s">
         <v>36</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>38</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="44"/>
+      <c r="F13" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>40</v>
+      </c>
       <c r="H13" s="2"/>
-      <c r="I13" s="34"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" ht="131.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41">
+      <c r="A14" s="36">
         <v>12</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="E14" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="37"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="34"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
